--- a/results/region_genre_09_adventure.xlsx
+++ b/results/region_genre_09_adventure.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>155645.5203</v>
+        <v>236792.6117</v>
       </c>
       <c r="G2" t="n">
         <v>0.001</v>
       </c>
       <c r="H2" t="n">
-        <v>114257.8876</v>
+        <v>157740.7713</v>
       </c>
       <c r="I2" t="n">
-        <v>197033.153</v>
+        <v>315844.4521</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -545,16 +545,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-30464.6633</v>
+        <v>-77839.62480000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5288</v>
+        <v>0.09810000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>-71852.29610000001</v>
+        <v>-160550.0635</v>
       </c>
       <c r="I3" t="n">
-        <v>10922.9694</v>
+        <v>4870.8139</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
@@ -585,16 +585,16 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>58102.3929</v>
+        <v>87296.4782</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001</v>
+        <v>0.0177</v>
       </c>
       <c r="H4" t="n">
-        <v>16714.7601</v>
+        <v>6507.0839</v>
       </c>
       <c r="I4" t="n">
-        <v>99490.02559999999</v>
+        <v>168085.8725</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -625,16 +625,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-186110.1836</v>
+        <v>-314632.2365</v>
       </c>
       <c r="G5" t="n">
         <v>0.001</v>
       </c>
       <c r="H5" t="n">
-        <v>-227497.8164</v>
+        <v>-391854.3967</v>
       </c>
       <c r="I5" t="n">
-        <v>-144722.5509</v>
+        <v>-237410.0763</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -665,16 +665,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-97543.1274</v>
+        <v>-149496.1335</v>
       </c>
       <c r="G6" t="n">
         <v>0.001</v>
       </c>
       <c r="H6" t="n">
-        <v>-138930.7602</v>
+        <v>-224657.1046</v>
       </c>
       <c r="I6" t="n">
-        <v>-56155.4947</v>
+        <v>-74335.1624</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -705,16 +705,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>88567.05620000001</v>
+        <v>165136.103</v>
       </c>
       <c r="G7" t="n">
         <v>0.001</v>
       </c>
       <c r="H7" t="n">
-        <v>47179.4235</v>
+        <v>86136.136</v>
       </c>
       <c r="I7" t="n">
-        <v>129954.6889</v>
+        <v>244136.07</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
